--- a/classfiers/bloated/elm/smote/bloated_elm_tanh_smote_results.xlsx
+++ b/classfiers/bloated/elm/smote/bloated_elm_tanh_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5227272727272727</v>
+        <v>0.6158536585365854</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.5101010101010101</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6865671641791045</v>
+        <v>0.5580110497237569</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7580290684414589</v>
+        <v>0.5558402653990889</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5198135198135199</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6840490797546013</v>
+        <v>0.653061224489796</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5368663594470047</v>
+        <v>0.514354066985646</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5070093457943925</v>
+        <v>0.5038363171355499</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6728682170542636</v>
+        <v>0.6700680272108843</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6457399103139013</v>
+        <v>0.5318627450980392</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.813953488372093</v>
+        <v>0.5025380710659898</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3097345132743363</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4487179487179487</v>
+        <v>0.6689189189189189</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4952012962732145</v>
+        <v>0.5862068965517242</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6914893617021277</v>
+        <v>0.5891891891891892</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2876106194690266</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.40625</v>
+        <v>0.7414965986394557</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5243882172088579</v>
+        <v>0.7950819672131147</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6109985976818811</v>
+        <v>0.5392531441551599</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7194690265486725</v>
+        <v>0.9020202020202021</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5796904819411837</v>
+        <v>0.6583111637965624</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5920449703368875</v>
+        <v>0.5966691882495226</v>
       </c>
     </row>
   </sheetData>
